--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINITHA EDWIN\IdeaProjects\automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13AA5EC-57C4-4B3C-9C68-D411BDC38B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1259CAC-915B-4B65-BE4A-6999B3763F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Edwin</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Simple@123</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>Demo Web Shop</t>
   </si>
 </sst>
 </file>
@@ -391,26 +397,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{0021E641-F800-466B-8846-4D0ECC123747}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -474,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D150F5-A3C4-410C-AD91-A2BEA7B41A0F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINITHA EDWIN\IdeaProjects\automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1259CAC-915B-4B65-BE4A-6999B3763F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF605C84-D243-47FD-B76C-1854BDAF267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -27,48 +27,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Edwin</t>
-  </si>
-  <si>
-    <t>vinithaedwin.test@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinitha </t>
-  </si>
-  <si>
-    <t>Reema</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Praisy</t>
-  </si>
-  <si>
-    <t>Prasad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinnu </t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifana </t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Simple@123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>HomePageTitle</t>
   </si>
   <si>
     <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>LoginPageTitle</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Register</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Login</t>
+  </si>
+  <si>
+    <t>RegisterPageTitle</t>
   </si>
 </sst>
 </file>
@@ -399,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,10 +387,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -424,52 +400,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1609990C-9B9B-4D5E-9D38-7CDD6944AA8E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -481,22 +429,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D150F5-A3C4-410C-AD91-A2BEA7B41A0F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -504,8 +453,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{81DE6C52-41E4-4C8C-A358-118014279598}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{5D6001EF-A649-4CC7-AF71-69F167478A06}"/>
+    <hyperlink ref="A1" r:id="rId1" display="vinithaedwin.test@gmail.com" xr:uid="{81DE6C52-41E4-4C8C-A358-118014279598}"/>
+    <hyperlink ref="B1" r:id="rId2" display="Simple@123" xr:uid="{5D6001EF-A649-4CC7-AF71-69F167478A06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINITHA EDWIN\IdeaProjects\automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF605C84-D243-47FD-B76C-1854BDAF267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B792A9-796B-4F3D-A7FC-9688423C9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="ResigterPage" sheetId="2" r:id="rId2"/>
-    <sheet name="LoginPage" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginPage" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>HomePageTitle</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>RegisterPageTitle</t>
+  </si>
+  <si>
+    <t>vinithaedwin.test@gmail.com</t>
+  </si>
+  <si>
+    <t>Simple@123</t>
   </si>
 </sst>
 </file>
@@ -426,35 +432,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D150F5-A3C4-410C-AD91-A2BEA7B41A0F}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5BC295-5D65-467F-A99E-6FB8337CDDDC}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="vinithaedwin.test@gmail.com" xr:uid="{81DE6C52-41E4-4C8C-A358-118014279598}"/>
-    <hyperlink ref="B1" r:id="rId2" display="Simple@123" xr:uid="{5D6001EF-A649-4CC7-AF71-69F167478A06}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{85515A0D-4D0E-453A-89E5-961F11208C28}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{18CFB758-4501-4EA3-B1A0-B84D578654AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINITHA EDWIN\IdeaProjects\automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B792A9-796B-4F3D-A7FC-9688423C9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ACCC0A-9695-4384-B565-17BA79A6B310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>HomePageTitle</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Simple@123</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Login was unsuccessful. Please correct the errors and try again.</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5BC295-5D65-467F-A99E-6FB8337CDDDC}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,9 +454,12 @@
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="53.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -459,12 +471,22 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{85515A0D-4D0E-453A-89E5-961F11208C28}"/>
     <hyperlink ref="D1" r:id="rId2" xr:uid="{18CFB758-4501-4EA3-B1A0-B84D578654AF}"/>
+    <hyperlink ref="E1" r:id="rId3" xr:uid="{43ED69BA-C8EB-4A8C-9E78-240A18402CC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
